--- a/tableau_1.xlsx
+++ b/tableau_1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A159692\Documents\these_Axelle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61C84CC-CF14-49EA-8F65-2AE293DA83B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207DFCF3-2FD1-4B1D-941E-880FBB3A6423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2C3A902-406B-A349-BBD1-45A94EB0DC22}"/>
+    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{C2C3A902-406B-A349-BBD1-45A94EB0DC22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="145">
   <si>
     <t>N</t>
   </si>
@@ -244,45 +245,6 @@
     <t xml:space="preserve">Précaire et illégal </t>
   </si>
   <si>
-    <t>Fait souvent des crises de colères</t>
-  </si>
-  <si>
-    <t>En général obéissant(e)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se bagarre souvent avec les autres </t>
-  </si>
-  <si>
-    <t>Ment ou triche souvent</t>
-  </si>
-  <si>
-    <t>Se plaint sv de maux tete/ ventre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Souvent inquiet </t>
-  </si>
-  <si>
-    <t>Souvent malheureux, pleure souvent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anxieux </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facilement effrayé, bcp de peurs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyperactif </t>
-  </si>
-  <si>
-    <t>Difficultés à la concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reflechit avant d'agir </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attention maintenue </t>
-  </si>
-  <si>
     <t xml:space="preserve">Troubles comportementaux </t>
   </si>
   <si>
@@ -298,21 +260,6 @@
     <t xml:space="preserve">Troubles relationnels </t>
   </si>
   <si>
-    <t xml:space="preserve">Plutot solitaire, joue seul </t>
-  </si>
-  <si>
-    <t>A tendance à avoir 1 ami(e)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plutot aimé des autres enfants </t>
-  </si>
-  <si>
-    <t>Tyranisé/Harcelé</t>
-  </si>
-  <si>
-    <t>S'entend mieux avec les adultes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Etat de santé des enfants percu par leur parents </t>
   </si>
   <si>
@@ -723,6 +670,332 @@
       </rPr>
       <t>type_hab</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fait souvent des crises de colères </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sdq_comport1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En général obéissant(e) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sdq_comport2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Se bagarre souvent avec les autres</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sdq_comport3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ment ou triche souvent </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sdq_comport4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se plaint sv de maux tete/ ventre </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sdq_emot1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Souvent inquiet </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sdq_emot2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Souvent malheureux, pleure souvent </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sdq_emot3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Anxieux </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sdq_emot4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Facilement effrayé, bcp de peurs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sdq_emot5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hyperactif </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sdq_hyper1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reflechit avant d'agir </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sdq_hyper4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attention maintenue </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sdq_hyper5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ne tient pas en place </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sdq_hyper2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Difficultés de concentration </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sdq_hyper3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Plutot solitaire, joue seul </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sdq_relat3_p2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A tendance à avoir 1 ami(e) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sdq_relat4_p2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Plutot aimé des autres enfants</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sdq_relat5_p2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tyranisé/Harcelé </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sdq_relat1_p2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S'entend mieux avec les adultes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sdq_relat2_p2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Modèle de poisson </t>
   </si>
 </sst>
 </file>
@@ -1140,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798C917A-AB1A-C54D-9F83-E381AB725B17}">
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="111" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="111" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1157,18 +1430,18 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -1265,7 +1538,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1285,7 +1558,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1305,13 +1578,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="12" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1352,7 +1625,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1360,13 +1633,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="B19" s="14" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E19"/>
     </row>
@@ -1378,12 +1651,12 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
@@ -1393,10 +1666,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C23">
         <v>49</v>
@@ -1409,19 +1682,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="B24" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C24">
         <v>27</v>
       </c>
       <c r="D24" s="11">
-        <f t="shared" ref="D24:D43" si="1">C24/337</f>
+        <f t="shared" ref="D24:D44" si="1">C24/337</f>
         <v>8.0118694362017809E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C25">
         <v>15</v>
@@ -1433,7 +1706,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="C26">
         <v>15</v>
@@ -1445,7 +1718,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D27" s="11">
         <f t="shared" si="1"/>
@@ -1454,7 +1727,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="B28" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="C28">
         <v>38</v>
@@ -1466,7 +1739,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="B29" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C29">
         <v>39</v>
@@ -1478,7 +1751,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="B30" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -1490,7 +1763,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="B31" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="C31">
         <v>19</v>
@@ -1502,7 +1775,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="B32" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="C32">
         <v>26</v>
@@ -1514,7 +1787,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D33" s="11">
         <f t="shared" si="1"/>
@@ -1523,7 +1796,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="B34" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="C34">
         <v>71</v>
@@ -1535,7 +1808,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="B35" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="C35">
         <v>57</v>
@@ -1547,64 +1820,64 @@
     </row>
     <row r="36" spans="1:4">
       <c r="B36" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="C36">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D36" s="11">
         <f t="shared" si="1"/>
-        <v>0.19584569732937684</v>
+        <v>0.16913946587537093</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="B37" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="C37">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D37" s="11">
         <f t="shared" si="1"/>
-        <v>0.22255192878338279</v>
+        <v>0.19584569732937684</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>79</v>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38">
+        <v>75</v>
       </c>
       <c r="D38" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.22255192878338279</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="B39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39">
-        <v>13</v>
+      <c r="A39" t="s">
+        <v>66</v>
       </c>
       <c r="D39" s="11">
         <f t="shared" si="1"/>
-        <v>3.857566765578635E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="B40" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D40" s="11">
         <f t="shared" si="1"/>
-        <v>7.1216617210682495E-2</v>
+        <v>3.857566765578635E-2</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="B41" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="C41">
         <v>24</v>
@@ -1616,286 +1889,286 @@
     </row>
     <row r="42" spans="1:4">
       <c r="B42" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="C42">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D42" s="11">
         <f t="shared" si="1"/>
-        <v>2.3738872403560832E-2</v>
+        <v>7.1216617210682495E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="B43" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43" s="11">
         <f t="shared" si="1"/>
+        <v>2.3738872403560832E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44" s="11">
+        <f t="shared" si="1"/>
         <v>2.6706231454005934E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="12"/>
-    </row>
     <row r="45" spans="1:4">
-      <c r="B45" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45">
+      <c r="A45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46">
         <v>322</v>
       </c>
-      <c r="D45" s="11">
-        <f>C45/337</f>
+      <c r="D46" s="11">
+        <f>C46/337</f>
         <v>0.95548961424332346</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="12"/>
-    </row>
     <row r="47" spans="1:4">
-      <c r="B47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47">
+      <c r="A47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="12"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48">
         <v>64</v>
       </c>
-      <c r="D47" s="11">
-        <f>C47/337</f>
+      <c r="D48" s="11">
+        <f>C48/337</f>
         <v>0.18991097922848665</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="12"/>
-    </row>
     <row r="49" spans="1:5">
-      <c r="B49" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49">
+      <c r="A49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="12"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50">
         <v>60</v>
       </c>
-      <c r="D49" s="11">
-        <f>C49/337</f>
+      <c r="D50" s="11">
+        <f>C50/337</f>
         <v>0.17804154302670624</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="12"/>
-    </row>
     <row r="51" spans="1:5">
-      <c r="B51" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51">
+      <c r="A51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="12"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52">
         <v>16</v>
       </c>
-      <c r="D51" s="11">
-        <f>C51/337</f>
+      <c r="D52" s="11">
+        <f>C52/337</f>
         <v>4.7477744807121663E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="B52" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="1">
+    <row r="53" spans="1:5">
+      <c r="B53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="1">
         <v>34</v>
       </c>
-      <c r="D52" s="11">
-        <f t="shared" ref="D52:D58" si="2">C52/337</f>
+      <c r="D53" s="11">
+        <f t="shared" ref="D53:D59" si="2">C53/337</f>
         <v>0.10089020771513353</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="B53" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53">
+    <row r="54" spans="1:5">
+      <c r="B54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54">
         <v>27</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="11">
         <f t="shared" si="2"/>
         <v>8.0118694362017809E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="B54" t="s">
-        <v>93</v>
-      </c>
-      <c r="C54">
+    <row r="55" spans="1:5">
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55">
         <v>33</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <f t="shared" si="2"/>
         <v>9.7922848664688422E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="B55" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55">
+    <row r="56" spans="1:5">
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56">
         <v>15</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <f t="shared" si="2"/>
         <v>4.4510385756676561E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="B56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56">
+    <row r="57" spans="1:5">
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57">
         <v>28</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <f t="shared" si="2"/>
         <v>8.3086053412462904E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="B57" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57">
+    <row r="58" spans="1:5">
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58">
         <v>13</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <f t="shared" si="2"/>
         <v>3.857566765578635E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="B58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58">
+    <row r="59" spans="1:5">
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59">
         <v>8</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <f t="shared" si="2"/>
         <v>2.3738872403560832E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="B59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59">
+    <row r="60" spans="1:5">
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60">
         <v>14</v>
       </c>
-      <c r="D59" s="11">
-        <f>C59/337</f>
+      <c r="D60" s="11">
+        <f>C60/337</f>
         <v>4.1543026706231452E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="12"/>
-    </row>
     <row r="61" spans="1:5">
-      <c r="B61" t="s">
-        <v>87</v>
-      </c>
-      <c r="C61">
+      <c r="A61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="12"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62">
         <v>31</v>
       </c>
-      <c r="D61" s="11">
-        <f>C61/337</f>
+      <c r="D62" s="11">
+        <f>C62/337</f>
         <v>9.1988130563798218E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
     <row r="63" spans="1:5">
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>23</v>
-      </c>
-      <c r="E63" s="11">
-        <f>C63/31</f>
-        <v>0.74193548387096775</v>
+      <c r="A63" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="B64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E64" s="11">
-        <f t="shared" ref="E64:E67" si="3">C64/31</f>
-        <v>0.12903225806451613</v>
+        <f>C64/31</f>
+        <v>0.74193548387096775</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="E65" s="11">
+        <f t="shared" ref="E65:E68" si="3">C65/31</f>
+        <v>0.12903225806451613</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="B66">
         <v>3</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <v>2</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E66" s="11">
         <f t="shared" si="3"/>
         <v>6.4516129032258063E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="B66">
-        <v>4</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="E66" s="11">
-        <f t="shared" si="3"/>
-        <v>3.2258064516129031E-2</v>
-      </c>
-    </row>
     <row r="67" spans="1:7">
       <c r="B67">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1906,1006 +2179,1018 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="12"/>
+      <c r="B68">
+        <v>16</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="E68" s="11">
+        <f t="shared" si="3"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="C69">
+      <c r="A69" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="12"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="C70">
         <v>72</v>
       </c>
-      <c r="D69" s="11">
-        <f>C69/337</f>
+      <c r="D70" s="11">
+        <f>C70/337</f>
         <v>0.21364985163204747</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="12" t="s">
+    <row r="71" spans="1:7">
+      <c r="A71" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="3"/>
-      <c r="B71">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="3"/>
+      <c r="B72">
         <v>1</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <v>53</v>
       </c>
-      <c r="E71" s="11">
-        <f>C71/72</f>
+      <c r="E72" s="11">
+        <f>C72/72</f>
         <v>0.73611111111111116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="B72">
-        <v>2</v>
-      </c>
-      <c r="C72">
-        <v>12</v>
-      </c>
-      <c r="E72" s="11">
-        <f t="shared" ref="E72:E75" si="4">C72/72</f>
-        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+      <c r="E73" s="11">
+        <f t="shared" ref="E73:E76" si="4">C73/72</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="B74">
         <v>3</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <v>4</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="11">
         <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="B74">
+    <row r="75" spans="1:7">
+      <c r="B75">
         <v>5</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <v>2</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <f t="shared" si="4"/>
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="B75">
+    <row r="76" spans="1:7">
+      <c r="B76">
         <v>10</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <v>1</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E76" s="11">
         <f t="shared" si="4"/>
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
     <row r="77" spans="1:7">
-      <c r="B77" t="s">
-        <v>100</v>
-      </c>
-      <c r="C77">
-        <v>23</v>
-      </c>
-      <c r="E77" s="11">
-        <f>C77/72</f>
-        <v>0.31944444444444442</v>
+      <c r="A77" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="B78" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C78">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E78" s="11">
-        <f t="shared" ref="E78:E80" si="5">C78/72</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G78" s="11"/>
+        <f>C78/72</f>
+        <v>0.31944444444444442</v>
+      </c>
     </row>
     <row r="79" spans="1:7">
       <c r="B79" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C79">
+        <v>24</v>
+      </c>
+      <c r="E79" s="11">
+        <f t="shared" ref="E79:E81" si="5">C79/72</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G79" s="11"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80">
         <v>3</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E80" s="11">
         <f t="shared" si="5"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
-      <c r="B80" t="s">
-        <v>113</v>
-      </c>
-      <c r="C80">
+    <row r="81" spans="1:5">
+      <c r="B81" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81">
         <v>22</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E81" s="11">
         <f t="shared" si="5"/>
         <v>0.30555555555555558</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-    </row>
     <row r="82" spans="1:5">
-      <c r="B82" t="s">
-        <v>87</v>
-      </c>
-      <c r="C82">
+      <c r="A82" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="B83" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83">
         <v>6</v>
       </c>
-      <c r="D82" s="11">
-        <f>C82/337</f>
+      <c r="D83" s="11">
+        <f>C83/337</f>
         <v>1.7804154302670624E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="12"/>
-    </row>
     <row r="84" spans="1:5">
-      <c r="B84" s="8"/>
-      <c r="C84">
+      <c r="A84" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="12"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="B85" s="8"/>
+      <c r="C85">
         <v>59</v>
       </c>
-      <c r="D84" s="11">
-        <f>C84/337</f>
+      <c r="D85" s="11">
+        <f>C85/337</f>
         <v>0.17507418397626112</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
     <row r="86" spans="1:5">
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86">
-        <v>43</v>
-      </c>
-      <c r="E86" s="11">
-        <f>C86/59</f>
-        <v>0.72881355932203384</v>
+      <c r="A86" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="B87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E87" s="11">
-        <f t="shared" ref="E87:E89" si="6">C87/59</f>
-        <v>0.13559322033898305</v>
+        <f>C87/59</f>
+        <v>0.72881355932203384</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+      <c r="E88" s="11">
+        <f t="shared" ref="E88:E90" si="6">C88/59</f>
+        <v>0.13559322033898305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="B89">
         <v>3</v>
       </c>
-      <c r="C88">
+      <c r="C89">
         <v>6</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E89" s="11">
         <f t="shared" si="6"/>
         <v>0.10169491525423729</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="B89">
+    <row r="90" spans="1:5">
+      <c r="B90">
         <v>5</v>
       </c>
-      <c r="C89">
+      <c r="C90">
         <v>2</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E90" s="11">
         <f t="shared" si="6"/>
         <v>3.3898305084745763E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-    </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91">
+      <c r="A91" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92">
         <v>10</v>
       </c>
-      <c r="D91" s="11">
-        <f>C91/337</f>
+      <c r="D92" s="11">
+        <f>C92/337</f>
         <v>2.967359050445104E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
     <row r="93" spans="1:5">
-      <c r="B93" t="s">
-        <v>104</v>
-      </c>
-      <c r="C93">
-        <v>40</v>
-      </c>
-      <c r="E93" s="11">
-        <f>C93/59</f>
-        <v>0.67796610169491522</v>
+      <c r="A93" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="B94" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C94">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E94" s="11">
-        <f t="shared" ref="E94:E95" si="7">C94/59</f>
-        <v>0.20338983050847459</v>
+        <f>C94/59</f>
+        <v>0.67796610169491522</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="B95" t="s">
-        <v>120</v>
-      </c>
-      <c r="C95" s="10">
+        <v>103</v>
+      </c>
+      <c r="C95">
+        <v>12</v>
+      </c>
+      <c r="E95" s="11">
+        <f t="shared" ref="E95:E96" si="7">C95/59</f>
+        <v>0.20338983050847459</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="B96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" s="10">
         <v>7</v>
       </c>
-      <c r="E95" s="11">
+      <c r="E96" s="11">
         <f t="shared" si="7"/>
         <v>0.11864406779661017</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2" t="s">
+    <row r="97" spans="1:5">
+      <c r="A97" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="B97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C97">
-        <v>28</v>
-      </c>
-      <c r="E97" s="11">
-        <f>C97/59</f>
-        <v>0.47457627118644069</v>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="B98" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C98">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E98" s="11">
-        <f t="shared" ref="E98:E100" si="8">C98/59</f>
-        <v>0.38983050847457629</v>
+        <f>C98/59</f>
+        <v>0.47457627118644069</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="B99" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C99">
+        <v>23</v>
+      </c>
+      <c r="E99" s="11">
+        <f t="shared" ref="E99:E101" si="8">C99/59</f>
+        <v>0.38983050847457629</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="B100" t="s">
+        <v>89</v>
+      </c>
+      <c r="C100">
         <v>3</v>
       </c>
-      <c r="E99" s="11">
+      <c r="E100" s="11">
         <f t="shared" si="8"/>
         <v>5.0847457627118647E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="B100" t="s">
-        <v>121</v>
-      </c>
-      <c r="C100">
+    <row r="101" spans="1:5">
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101">
         <v>5</v>
       </c>
-      <c r="E100" s="11">
+      <c r="E101" s="11">
         <f t="shared" si="8"/>
         <v>8.4745762711864403E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-    </row>
     <row r="102" spans="1:5">
-      <c r="B102" t="s">
-        <v>109</v>
-      </c>
-      <c r="C102">
+      <c r="A102" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="B103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C103">
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="5" t="s">
+    <row r="104" spans="1:5">
+      <c r="A104" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104">
-        <v>285</v>
-      </c>
-      <c r="D104" s="11">
-        <f>C104/337</f>
-        <v>0.8456973293768546</v>
-      </c>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="D105" s="11">
-        <f t="shared" ref="D105:D118" si="9">C105/337</f>
-        <v>0.56973293768545996</v>
+        <f>C105/337</f>
+        <v>0.8456973293768546</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>192</v>
+      </c>
+      <c r="D106" s="11">
+        <f t="shared" ref="D106:D119" si="9">C106/337</f>
+        <v>0.56973293768545996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
         <v>8</v>
       </c>
-      <c r="C106">
+      <c r="C107">
         <v>300</v>
       </c>
-      <c r="D106" s="11">
+      <c r="D107" s="11">
         <f t="shared" si="9"/>
         <v>0.89020771513353114</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
         <v>9</v>
       </c>
-      <c r="C107">
+      <c r="C108">
         <v>66</v>
       </c>
-      <c r="D107" s="11">
+      <c r="D108" s="11">
         <f t="shared" si="9"/>
         <v>0.19584569732937684</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="B109" s="3" t="s">
+    <row r="110" spans="1:5">
+      <c r="B110" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C109">
+      <c r="C110">
         <v>99</v>
       </c>
-      <c r="D109" s="11">
+      <c r="D110" s="11">
         <f t="shared" si="9"/>
         <v>0.29376854599406527</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
-      <c r="B110" s="3" t="s">
+    <row r="111" spans="1:5">
+      <c r="B111" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C110">
+      <c r="C111">
         <v>27</v>
       </c>
-      <c r="D110" s="11">
+      <c r="D111" s="11">
         <f t="shared" si="9"/>
         <v>8.0118694362017809E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="4" t="s">
+    <row r="112" spans="1:5">
+      <c r="A112" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="B112" s="3" t="s">
+    <row r="113" spans="1:4">
+      <c r="B113" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C112">
+      <c r="C113">
         <v>39</v>
       </c>
-      <c r="D112" s="11">
+      <c r="D113" s="11">
         <f t="shared" si="9"/>
         <v>0.11572700296735905</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="B113" s="3" t="s">
+    <row r="114" spans="1:4">
+      <c r="B114" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C113">
+      <c r="C114">
         <v>218</v>
       </c>
-      <c r="D113" s="11">
+      <c r="D114" s="11">
         <f t="shared" si="9"/>
         <v>0.64688427299703266</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="B114" s="3" t="s">
+    <row r="115" spans="1:4">
+      <c r="B115" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C114">
+      <c r="C115">
         <v>39</v>
       </c>
-      <c r="D114" s="11">
+      <c r="D115" s="11">
         <f t="shared" si="9"/>
         <v>0.11572700296735905</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="4" t="s">
+    <row r="116" spans="1:4">
+      <c r="A116" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="B116" s="3" t="s">
+    <row r="117" spans="1:4">
+      <c r="B117" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C116">
+      <c r="C117">
         <v>195</v>
       </c>
-      <c r="D116" s="11">
+      <c r="D117" s="11">
         <f t="shared" si="9"/>
         <v>0.57863501483679525</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>138</v>
-      </c>
-    </row>
     <row r="118" spans="1:4">
-      <c r="B118" s="3" t="s">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="B119" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C119" s="3">
         <v>159</v>
       </c>
-      <c r="D118" s="11">
+      <c r="D119" s="11">
         <f t="shared" si="9"/>
         <v>0.47181008902077154</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="5" t="s">
+    <row r="125" spans="1:4">
+      <c r="A125" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B124" s="5"/>
-      <c r="C124" s="6"/>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
+      <c r="B125" s="5"/>
+      <c r="C125" s="6"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="B126" t="s">
-        <v>23</v>
-      </c>
-      <c r="C126">
-        <v>65</v>
-      </c>
-      <c r="D126" s="11">
-        <f>C126/337</f>
-        <v>0.19287833827893175</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="B127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C127">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D127" s="11">
-        <f t="shared" ref="D127:D144" si="10">C127/337</f>
-        <v>0.2314540059347181</v>
+        <f>C127/337</f>
+        <v>0.19287833827893175</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="B128" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128">
+        <v>78</v>
+      </c>
+      <c r="D128" s="11">
+        <f t="shared" ref="D128:D145" si="10">C128/337</f>
+        <v>0.2314540059347181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="B129" t="s">
         <v>25</v>
       </c>
-      <c r="C128">
+      <c r="C129">
         <v>139</v>
       </c>
-      <c r="D128" s="11">
+      <c r="D129" s="11">
         <f t="shared" si="10"/>
         <v>0.41246290801186941</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="B129" t="s">
+    <row r="130" spans="1:4">
+      <c r="B130" t="s">
         <v>26</v>
       </c>
-      <c r="C129">
+      <c r="C130">
         <v>52</v>
       </c>
-      <c r="D129" s="11">
+      <c r="D130" s="11">
         <f t="shared" si="10"/>
         <v>0.1543026706231454</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="B131" t="s">
+    <row r="132" spans="1:4">
+      <c r="B132" t="s">
         <v>28</v>
       </c>
-      <c r="C131">
+      <c r="C132">
         <v>69</v>
       </c>
-      <c r="D131" s="11">
+      <c r="D132" s="11">
         <f t="shared" si="10"/>
         <v>0.20474777448071216</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="B132" t="s">
+    <row r="133" spans="1:4">
+      <c r="B133" t="s">
         <v>29</v>
       </c>
-      <c r="C132">
+      <c r="C133">
         <v>143</v>
       </c>
-      <c r="D132" s="11">
+      <c r="D133" s="11">
         <f t="shared" si="10"/>
         <v>0.42433234421364985</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="B133" t="s">
+    <row r="134" spans="1:4">
+      <c r="B134" t="s">
         <v>30</v>
       </c>
-      <c r="C133">
+      <c r="C134">
         <v>22</v>
       </c>
-      <c r="D133" s="11">
+      <c r="D134" s="11">
         <f t="shared" si="10"/>
         <v>6.5281899109792291E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="B134" t="s">
+    <row r="135" spans="1:4">
+      <c r="B135" t="s">
         <v>31</v>
       </c>
-      <c r="C134">
+      <c r="C135">
         <v>54</v>
       </c>
-      <c r="D134" s="11">
+      <c r="D135" s="11">
         <f t="shared" si="10"/>
         <v>0.16023738872403562</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="B135" t="s">
+    <row r="136" spans="1:4">
+      <c r="B136" t="s">
         <v>32</v>
       </c>
-      <c r="C135">
+      <c r="C136">
         <v>47</v>
       </c>
-      <c r="D135" s="11">
+      <c r="D136" s="11">
         <f t="shared" si="10"/>
         <v>0.1394658753709199</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="B137" s="4">
+    <row r="138" spans="1:4">
+      <c r="B138" s="4">
         <v>1</v>
       </c>
-      <c r="C137">
+      <c r="C138">
         <v>109</v>
       </c>
-      <c r="D137" s="11">
+      <c r="D138" s="11">
         <f t="shared" si="10"/>
         <v>0.32344213649851633</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="B138" s="7" t="s">
+    <row r="139" spans="1:4">
+      <c r="B139" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C138">
+      <c r="C139">
         <v>52</v>
       </c>
-      <c r="D138" s="11">
+      <c r="D139" s="11">
         <f t="shared" si="10"/>
         <v>0.1543026706231454</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="B139" t="s">
+    <row r="140" spans="1:4">
+      <c r="B140" t="s">
         <v>35</v>
       </c>
-      <c r="C139">
+      <c r="C140">
         <v>47</v>
       </c>
-      <c r="D139" s="11">
+      <c r="D140" s="11">
         <f t="shared" si="10"/>
         <v>0.1394658753709199</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="B140" t="s">
+    <row r="141" spans="1:4">
+      <c r="B141" t="s">
         <v>36</v>
       </c>
-      <c r="C140">
+      <c r="C141">
         <v>53</v>
       </c>
-      <c r="D140" s="11">
+      <c r="D141" s="11">
         <f t="shared" si="10"/>
         <v>0.15727002967359049</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="B141" t="s">
+    <row r="142" spans="1:4">
+      <c r="B142" t="s">
         <v>37</v>
       </c>
-      <c r="C141">
+      <c r="C142">
         <v>20</v>
       </c>
-      <c r="D141" s="11">
+      <c r="D142" s="11">
         <f t="shared" si="10"/>
         <v>5.9347181008902079E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="B142" t="s">
+    <row r="143" spans="1:4">
+      <c r="B143" t="s">
         <v>38</v>
       </c>
-      <c r="C142">
+      <c r="C143">
         <v>41</v>
       </c>
-      <c r="D142" s="11">
+      <c r="D143" s="11">
         <f t="shared" si="10"/>
         <v>0.12166172106824925</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="B144" t="s">
+    <row r="145" spans="1:4">
+      <c r="B145" t="s">
         <v>40</v>
       </c>
-      <c r="C144">
+      <c r="C145">
         <v>204</v>
       </c>
-      <c r="D144" s="11">
+      <c r="D145" s="11">
         <f t="shared" si="10"/>
         <v>0.60534124629080122</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="6" t="s">
+    <row r="149" spans="1:4">
+      <c r="A149" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
-        <v>141</v>
-      </c>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
     </row>
     <row r="150" spans="1:4">
-      <c r="B150" t="s">
-        <v>42</v>
-      </c>
-      <c r="C150">
-        <v>142</v>
-      </c>
-      <c r="D150" s="11">
-        <f>C150/337</f>
-        <v>0.42136498516320475</v>
+      <c r="A150" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="B151" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C151">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="D151" s="11">
-        <f t="shared" ref="D151:D171" si="11">C151/337</f>
-        <v>0.29376854599406527</v>
+        <f>C151/337</f>
+        <v>0.42136498516320475</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="B152" t="s">
+        <v>43</v>
+      </c>
+      <c r="C152">
+        <v>99</v>
+      </c>
+      <c r="D152" s="11">
+        <f t="shared" ref="D152:D172" si="11">C152/337</f>
+        <v>0.29376854599406527</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="B153" t="s">
         <v>44</v>
       </c>
-      <c r="C152">
+      <c r="C153">
         <v>90</v>
       </c>
-      <c r="D152" s="11">
+      <c r="D153" s="11">
         <f t="shared" si="11"/>
         <v>0.26706231454005935</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
-        <v>142</v>
-      </c>
-    </row>
     <row r="154" spans="1:4">
-      <c r="B154" t="s">
+      <c r="A154" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="B155" t="s">
         <v>58</v>
       </c>
-      <c r="C154">
+      <c r="C155">
         <v>140</v>
       </c>
-      <c r="D154" s="11">
+      <c r="D155" s="11">
         <f t="shared" si="11"/>
         <v>0.41543026706231456</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="B155" t="s">
+    <row r="156" spans="1:4">
+      <c r="B156" t="s">
         <v>59</v>
       </c>
-      <c r="C155">
+      <c r="C156">
         <v>22</v>
       </c>
-      <c r="D155" s="11">
+      <c r="D156" s="11">
         <f t="shared" si="11"/>
         <v>6.5281899109792291E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="B156" t="s">
+    <row r="157" spans="1:4">
+      <c r="B157" t="s">
         <v>60</v>
       </c>
-      <c r="C156">
+      <c r="C157">
         <v>129</v>
       </c>
-      <c r="D156" s="11">
+      <c r="D157" s="11">
         <f t="shared" si="11"/>
         <v>0.3827893175074184</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="B157" t="s">
+    <row r="158" spans="1:4">
+      <c r="B158" t="s">
         <v>61</v>
       </c>
-      <c r="C157">
+      <c r="C158">
         <v>46</v>
       </c>
-      <c r="D157" s="11">
+      <c r="D158" s="11">
         <f t="shared" si="11"/>
         <v>0.13649851632047477</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" t="s">
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
         <v>45</v>
       </c>
-      <c r="C159">
+      <c r="C160">
         <v>284</v>
       </c>
-      <c r="D159" s="11">
+      <c r="D160" s="11">
         <f t="shared" si="11"/>
         <v>0.84272997032640951</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
         <v>46</v>
       </c>
-      <c r="D160" s="11">
+      <c r="D161" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="B161" t="s">
+    <row r="162" spans="1:4">
+      <c r="B162" t="s">
         <v>47</v>
       </c>
-      <c r="C161">
+      <c r="C162">
         <v>280</v>
       </c>
-      <c r="D161" s="11">
+      <c r="D162" s="11">
         <f t="shared" si="11"/>
         <v>0.83086053412462912</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="B162" t="s">
+    <row r="163" spans="1:4">
+      <c r="B163" t="s">
         <v>48</v>
       </c>
-      <c r="C162">
+      <c r="C163">
         <v>252</v>
       </c>
-      <c r="D162" s="11">
+      <c r="D163" s="11">
         <f t="shared" si="11"/>
         <v>0.74777448071216612</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="B164" t="s">
+    <row r="165" spans="1:4">
+      <c r="B165" t="s">
         <v>50</v>
       </c>
-      <c r="C164">
+      <c r="C165">
         <v>107</v>
       </c>
-      <c r="D164" s="11">
+      <c r="D165" s="11">
         <f t="shared" si="11"/>
         <v>0.31750741839762614</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="B165" t="s">
+    <row r="166" spans="1:4">
+      <c r="B166" t="s">
         <v>51</v>
       </c>
-      <c r="C165">
+      <c r="C166">
         <v>125</v>
       </c>
-      <c r="D165" s="11">
+      <c r="D166" s="11">
         <f t="shared" si="11"/>
         <v>0.37091988130563797</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" t="s">
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="B167" t="s">
+    <row r="168" spans="1:4">
+      <c r="B168" t="s">
         <v>53</v>
       </c>
-      <c r="C167">
+      <c r="C168">
         <v>80</v>
       </c>
-      <c r="D167" s="11">
+      <c r="D168" s="11">
         <f t="shared" si="11"/>
         <v>0.23738872403560832</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="B168" t="s">
+    <row r="169" spans="1:4">
+      <c r="B169" t="s">
         <v>54</v>
       </c>
-      <c r="C168">
+      <c r="C169">
         <v>171</v>
       </c>
-      <c r="D168" s="11">
+      <c r="D169" s="11">
         <f t="shared" si="11"/>
         <v>0.50741839762611274</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="B169" t="s">
+    <row r="170" spans="1:4">
+      <c r="B170" t="s">
         <v>56</v>
       </c>
-      <c r="C169">
+      <c r="C170">
         <v>64</v>
       </c>
-      <c r="D169" s="11">
+      <c r="D170" s="11">
         <f t="shared" si="11"/>
         <v>0.18991097922848665</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="B170" t="s">
+    <row r="171" spans="1:4">
+      <c r="B171" t="s">
         <v>55</v>
       </c>
-      <c r="C170">
+      <c r="C171">
         <v>4</v>
       </c>
-      <c r="D170" s="11">
+      <c r="D171" s="11">
         <f t="shared" si="11"/>
         <v>1.1869436201780416E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
         <v>57</v>
       </c>
-      <c r="C171">
+      <c r="C172">
         <v>96</v>
       </c>
-      <c r="D171" s="11">
+      <c r="D172" s="11">
         <f t="shared" si="11"/>
         <v>0.28486646884272998</v>
       </c>
@@ -2914,4 +3199,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE84AF48-4BC6-4B47-A240-5D69A2101B6D}">
+  <dimension ref="B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>